--- a/biology/Médecine/Daniel_Bargeton/Daniel_Bargeton.xlsx
+++ b/biology/Médecine/Daniel_Bargeton/Daniel_Bargeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Bargeton est un médecin et physiologiste français, né le 16 août 1906 à Saint-André-de-Majencoules et mort le 25 juin 1980 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Bargeton est un médecin et physiologiste français, né le 16 août 1906 à Saint-André-de-Majencoules et mort le 25 juin 1980 à Paris.
 Spécialiste de physiologie humaine, considéré comme l'un des initiateurs de la physiologie respiratoire en France, il a étudié les mécanismes de la régulation de la ventilation pulmonaire et la régulation chimique de la respiration au niveau alvéolaire.
 </t>
         </is>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Daniel Bargeton est le neveu du diplomate Paul Bargeton, le petit-fils du haut fonctionnaire Louis Bargeton (par son père Pierre Joseph Bargeton) et le petit-fils du magistrat Louis Sarrut (par sa mère Jeanne Sarrut). Sa femme Janine est morte centenaire en 2022. 
-Carrière[2]
-Il fait ses études à la faculté de médecine de Paris et devient in interne des Hôpitaux de Paris en 1929. En 1931-1932, il est assistant étranger à l'hôpital Virchow et à l'hôpital West End de Berlin puis devient en 1932 collaborateur des professeurs F. Couvelaire, F. Rathery et Léon Binet et, en 1933, assistant du laboratoire de physiologie à la Faculté de médecine de Paris.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Bargeton est le neveu du diplomate Paul Bargeton, le petit-fils du haut fonctionnaire Louis Bargeton (par son père Pierre Joseph Bargeton) et le petit-fils du magistrat Louis Sarrut (par sa mère Jeanne Sarrut). Sa femme Janine est morte centenaire en 2022. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Daniel_Bargeton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Bargeton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à la faculté de médecine de Paris et devient in interne des Hôpitaux de Paris en 1929. En 1931-1932, il est assistant étranger à l'hôpital Virchow et à l'hôpital West End de Berlin puis devient en 1932 collaborateur des professeurs F. Couvelaire, F. Rathery et Léon Binet et, en 1933, assistant du laboratoire de physiologie à la Faculté de médecine de Paris.
 Docteur en médecine (soutenance d'une thèse portant sur la physiologie du poumon) (1936), il est en 1936-1937 Fellow de la Fondation Rockefeller auprès du physiologiste américain W.B. Cannon à l'université Harvard de Boston et au laboratoire de biologie marine de Woods Hole (Massachusetts).
 Chef de clinique à la Faculté de médecine de Paris (1938), il est chargé de recherche au C.N.R.S. en 1943, maître de recherches au C.N.R.S. en 1945 et est en 1946, agrégé de physiologie à la Faculté de médecine de Paris.
 Professeur sans chaire à la Faculté de médecine de Paris (1952), il devient en 1958 professeur titulaire à la Faculté de médecine de Paris, où il organise un centre d'études de physiologie humaine.
@@ -527,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre de la Fondation Rockefeller de l'université Harvard de Boston
 Membre de l'Association des physiologistes de langue française, de la Société de biologie (Paris), de la Société française de biométrie, de la Société européenne de physiopathologie respiratoire, de la Société de biomécanique et de la Deutsche Physiologische Gesellschaft (Munich)
@@ -560,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Difficulté du diagnostic entre maladie de Hodgkin et leucémie à monocytes, Sang, 1933 (en collaboration avec Georges Marchal)
 Sur le pouvoir désaminant du poumon, comptes rendus de l'Académie des sciences (CRAS), 1934 (en collaboration avec Léon Binet)
@@ -600,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Bargeton</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Légion d'honneur (Officier)
 Commandeur dans l'Ordre des Palmes académiques
